--- a/DOC/myTable_vColor_2Remove.xlsx
+++ b/DOC/myTable_vColor_2Remove.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\OneDrive\Documents\GitHub\VAMOS_treeEpidemio\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434BD6C7-D1DC-43CD-8B5B-C9EDAD2D3A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD7064-EE46-477F-A256-5D5A13B03528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{10F0808B-2EC4-4017-AFBB-B9B95F4B474D}"/>
+    <workbookView xWindow="-2730" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{10F0808B-2EC4-4017-AFBB-B9B95F4B474D}"/>
   </bookViews>
   <sheets>
     <sheet name="myTable_vColor_2Remove" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="109">
   <si>
     <t>StudyID</t>
   </si>
@@ -508,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +706,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -867,11 +873,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1249,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57749EF-5CAB-4C6F-B66B-686D4654F1F7}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,8 +1443,8 @@
       <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1">
-        <v>2010</v>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1462,8 +1469,8 @@
       <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="1">
-        <v>2010</v>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1488,8 +1495,8 @@
       <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="1">
-        <v>2010</v>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1514,8 +1521,8 @@
       <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="1">
-        <v>2010</v>
+      <c r="H10" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1540,8 +1547,8 @@
       <c r="G11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="1">
-        <v>2010</v>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1566,8 +1573,8 @@
       <c r="G12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="1">
-        <v>2011</v>
+      <c r="H12" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1592,8 +1599,8 @@
       <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="1">
-        <v>2011</v>
+      <c r="H13" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1618,8 +1625,8 @@
       <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="1">
-        <v>2011</v>
+      <c r="H14" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1644,8 +1651,8 @@
       <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="1">
-        <v>2011</v>
+      <c r="H15" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1670,8 +1677,8 @@
       <c r="G16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="1">
-        <v>2011</v>
+      <c r="H16" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2242,8 +2249,8 @@
       <c r="G38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="1">
-        <v>2019</v>
+      <c r="H38" s="4">
+        <v>2017</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2268,8 +2275,8 @@
       <c r="G39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="1">
-        <v>2011</v>
+      <c r="H39" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2294,8 +2301,8 @@
       <c r="G40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="1">
-        <v>2011</v>
+      <c r="H40" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2320,8 +2327,8 @@
       <c r="G41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="1">
-        <v>2011</v>
+      <c r="H41" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2632,8 +2639,8 @@
       <c r="G53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H53" s="1">
-        <v>2022</v>
+      <c r="H53" s="4">
+        <v>2011</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2658,8 +2665,8 @@
       <c r="G54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="1">
-        <v>2022</v>
+      <c r="H54" s="4">
+        <v>2011</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2684,8 +2691,8 @@
       <c r="G55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="1">
-        <v>2022</v>
+      <c r="H55" s="4">
+        <v>2011</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
